--- a/biology/Botanique/Lamium_maculatum/Lamium_maculatum.xlsx
+++ b/biology/Botanique/Lamium_maculatum/Lamium_maculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium maculatum, le Lamier maculé ou Lamier tacheté, est une espèce de plantes herbacées de la famille des Lamiaceae.
 Elle est originaire d'Europe et d'Asie tempérée. C'est une plante vivace, velue, aux larges fleurs pourprées. La forme à feuilles tachetées est cultivée comme couvre sol.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lamier maculé est une plante vivace de 15 à 60 cm de haut[2], formée de tiges vertes dressées poilues, portant des paires de feuilles opposées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lamier maculé est une plante vivace de 15 à 60 cm de haut, formée de tiges vertes dressées poilues, portant des paires de feuilles opposées.
 La feuille pétiolée comporte un limbe de forme ovale, cordée, aux marges crénelées-dentées, avec souvent une large macule blanchâtre le long de la nervure centrale.
 Les fleurs zygomorphes, roses, purpurines rarement blanches, grandes (de 20 à 35 mm)
-[4], sont disposées en verticille, peu fournis.
+, sont disposées en verticille, peu fournis.
 -Le calice, à dents molles est plus court que le tube de la corolle
 -la corolle de 20-25 mm à tube courbé en S, ascendant, avec la lèvre supérieure poilue aux bords
 -les 4 étamines portent des anthères poilues.
@@ -550,10 +564,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lamier maculé croît dans les friches eutrophiles, les bords de rivières, les lisières de forêts, les talus, les haies.
-Il se rencontre en France à l'est d'une ligne Paris-Toulouse, dans les bassins inférieurs de la Seine, de la Loire et de la Garonne. On le trouve aussi ailleurs en Europe (de la Belgique, Allemagne, jusqu'en Pologne, naturalisé au Royaume-Uni, en Europe du Sud...), dans le Caucase, en Asie mineure[3] et naturalisé en Amérique du Nord[2].
+Il se rencontre en France à l'est d'une ligne Paris-Toulouse, dans les bassins inférieurs de la Seine, de la Loire et de la Garonne. On le trouve aussi ailleurs en Europe (de la Belgique, Allemagne, jusqu'en Pologne, naturalisé au Royaume-Uni, en Europe du Sud...), dans le Caucase, en Asie mineure et naturalisé en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On pourrait confondre les fleurs du lamier maculé avec celles du lamier pourpre. Les corolles de ce dernier sont cependant plus petites, ne dépassant généralement pas 10 mm, et sont moins (voire pas du tout) tachetées. Les deux plantes ont le même goût et les mêmes utilisations[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On pourrait confondre les fleurs du lamier maculé avec celles du lamier pourpre. Les corolles de ce dernier sont cependant plus petites, ne dépassant généralement pas 10 mm, et sont moins (voire pas du tout) tachetées. Les deux plantes ont le même goût et les mêmes utilisations.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des cultivars à taches blanches plus ou moins grandes ont été sélectionnées pour former des vivaces tapissantes. Ces plantes sont des couvre-sols s'étendant rapidement et pouvant devenir envahissants[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des cultivars à taches blanches plus ou moins grandes ont été sélectionnées pour former des vivaces tapissantes. Ces plantes sont des couvre-sols s'étendant rapidement et pouvant devenir envahissants.
 Le lamier maculé est de culture facile, dans un endroit ombragé ou ensoleillé, en milieu frais, riche en matière organique.
 </t>
         </is>
@@ -645,9 +665,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles peuvent être consommées en salade (leur saveur peu prononcée est agréable mais moins que celle de l'ortie), ainsi que les fleurs. Les feuilles plus âgées sont plutôt consommées cuites. Les racines seraient également consommées en Espagne[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles peuvent être consommées en salade (leur saveur peu prononcée est agréable mais moins que celle de l'ortie), ainsi que les fleurs. Les feuilles plus âgées sont plutôt consommées cuites. Les racines seraient également consommées en Espagne.
 </t>
         </is>
       </c>
@@ -676,9 +698,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[7], il existe de nombreux synonymes :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon The Plant List, il existe de nombreux synonymes :
 Lamium affine Guss. &amp; Ten.
 Lamium cardiaca Cogn.
 Lamium columnae Ten.
@@ -728,7 +752,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fleur
